--- a/doc/AgileDoc/SprintBacklog.xlsx
+++ b/doc/AgileDoc/SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CapstoneProject\peer-to-peer-lending-system\doc\AgileDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8987B5EC-710C-4BEB-A345-5646570D28CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57782255-21D9-474F-8855-8CCF267148DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="111">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>LocHV</t>
-  </si>
-  <si>
-    <t>Processing</t>
   </si>
   <si>
     <t>Design Homepage</t>
@@ -864,6 +861,9 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,9 +923,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,7 +1207,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1222,18 +1219,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1281,22 +1278,22 @@
         <v>99</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
@@ -1314,198 +1311,198 @@
         <v>99</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="79"/>
+      <c r="B6" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="79"/>
+      <c r="B7" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
-      <c r="B6" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="79"/>
+      <c r="B8" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
-      <c r="B7" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
-      <c r="B8" s="17" t="s">
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="79"/>
+      <c r="B9" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="78"/>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="79"/>
+      <c r="B10" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="78"/>
-      <c r="B10" s="17" t="s">
-        <v>107</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="E10" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>
@@ -1525,18 +1522,18 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
@@ -1556,18 +1553,18 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="78"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
@@ -1587,7 +1584,7 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="79"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -1612,7 +1609,7 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="75" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1645,7 +1642,7 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="75"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1676,7 +1673,7 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="75"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1689,25 +1686,25 @@
       <c r="E16" s="7">
         <v>5</v>
       </c>
-      <c r="F16" s="93">
+      <c r="F16" s="73">
         <v>3</v>
       </c>
-      <c r="G16" s="93">
+      <c r="G16" s="73">
         <v>1</v>
       </c>
-      <c r="H16" s="93">
+      <c r="H16" s="73">
         <v>1</v>
       </c>
-      <c r="I16" s="93">
-        <v>0</v>
-      </c>
-      <c r="J16" s="93">
+      <c r="I16" s="73">
+        <v>0</v>
+      </c>
+      <c r="J16" s="73">
         <v>0</v>
       </c>
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="76"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1746,23 +1743,23 @@
       <c r="D18" s="10"/>
       <c r="E18" s="9">
         <f>SUM(E3:E17)</f>
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="F18" s="9">
         <f>SUM(F3:F17)</f>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G18" s="9">
         <f>SUM(G3:G17)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H18" s="9">
         <f t="shared" ref="H18:J18" si="0">SUM(H3:H17)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I18" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
@@ -1786,7 +1783,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1800,19 +1797,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -1850,7 +1847,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="84" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="33" t="s">
@@ -1883,7 +1880,7 @@
       <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="33" t="s">
         <v>50</v>
       </c>
@@ -1914,7 +1911,7 @@
       <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="33" t="s">
         <v>51</v>
       </c>
@@ -1945,7 +1942,7 @@
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="45" t="s">
         <v>61</v>
       </c>
@@ -1976,8 +1973,8 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="85" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="86" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="29" t="s">
@@ -2007,8 +2004,8 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="29" t="s">
         <v>22</v>
       </c>
@@ -2036,8 +2033,8 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="29" t="s">
         <v>23</v>
       </c>
@@ -2065,8 +2062,8 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="29" t="s">
         <v>24</v>
       </c>
@@ -2094,7 +2091,7 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="45" t="s">
         <v>59</v>
       </c>
@@ -2125,8 +2122,8 @@
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="85" t="s">
+      <c r="A12" s="83"/>
+      <c r="B12" s="86" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="29" t="s">
@@ -2156,8 +2153,8 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="85"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="29" t="s">
         <v>23</v>
       </c>
@@ -2185,8 +2182,8 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="85"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="29" t="s">
         <v>24</v>
       </c>
@@ -2214,7 +2211,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="46" t="s">
         <v>29</v>
       </c>
@@ -2245,7 +2242,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="85" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="52" t="s">
@@ -2278,7 +2275,7 @@
       <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="47" t="s">
         <v>57</v>
       </c>
@@ -2309,7 +2306,7 @@
       <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="81" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="48" t="s">
@@ -2342,7 +2339,7 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="80"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="48" t="s">
         <v>45</v>
       </c>
@@ -2373,7 +2370,7 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="80"/>
+      <c r="A20" s="81"/>
       <c r="B20" s="48" t="s">
         <v>46</v>
       </c>
@@ -2404,7 +2401,7 @@
       <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="80"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="48" t="s">
         <v>53</v>
       </c>
@@ -2435,7 +2432,7 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="80"/>
+      <c r="A22" s="81"/>
       <c r="B22" s="48" t="s">
         <v>47</v>
       </c>
@@ -2532,18 +2529,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
@@ -2614,7 +2611,7 @@
       <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="87" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -2647,7 +2644,7 @@
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="86"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="22" t="s">
         <v>85</v>
       </c>
@@ -2678,7 +2675,7 @@
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="22" t="s">
         <v>86</v>
       </c>
@@ -2709,7 +2706,7 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="22" t="s">
         <v>87</v>
       </c>
@@ -2740,7 +2737,7 @@
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="86"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="45" t="s">
         <v>62</v>
       </c>
@@ -2771,8 +2768,8 @@
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
-      <c r="B9" s="85" t="s">
+      <c r="A9" s="87"/>
+      <c r="B9" s="86" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -2802,8 +2799,8 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="20" t="s">
         <v>69</v>
       </c>
@@ -2831,7 +2828,7 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="88" t="s">
         <v>70</v>
       </c>
       <c r="B11" s="59" t="s">
@@ -2864,7 +2861,7 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="25" t="s">
         <v>66</v>
       </c>
@@ -2895,7 +2892,7 @@
       <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="87"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="25" t="s">
         <v>67</v>
       </c>
@@ -2926,7 +2923,7 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
+      <c r="A14" s="88"/>
       <c r="B14" s="25" t="s">
         <v>68</v>
       </c>
@@ -2957,7 +2954,7 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="89" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -2990,7 +2987,7 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="88"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="23" t="s">
         <v>30</v>
       </c>
@@ -3021,7 +3018,7 @@
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="88"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="14" t="s">
         <v>31</v>
       </c>
@@ -3052,7 +3049,7 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="88"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="14" t="s">
         <v>32</v>
       </c>
@@ -3083,7 +3080,7 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="88"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="14" t="s">
         <v>33</v>
       </c>
@@ -3114,7 +3111,7 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="88"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="14" t="s">
         <v>34</v>
       </c>
@@ -3145,7 +3142,7 @@
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="88"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="14" t="s">
         <v>35</v>
       </c>
@@ -3176,7 +3173,7 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="88"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="14" t="s">
         <v>36</v>
       </c>
@@ -3207,7 +3204,7 @@
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="88"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="14" t="s">
         <v>37</v>
       </c>
@@ -3238,7 +3235,7 @@
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="88"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="22" t="s">
         <v>38</v>
       </c>
@@ -3269,7 +3266,7 @@
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="88"/>
+      <c r="A25" s="89"/>
       <c r="B25" s="22" t="s">
         <v>39</v>
       </c>
@@ -3300,7 +3297,7 @@
       <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="88"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="36" t="s">
         <v>40</v>
       </c>
@@ -3331,7 +3328,7 @@
       <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="88"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="22" t="s">
         <v>41</v>
       </c>
@@ -3362,7 +3359,7 @@
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="88"/>
+      <c r="A28" s="89"/>
       <c r="B28" s="25" t="s">
         <v>42</v>
       </c>
@@ -3393,7 +3390,7 @@
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="88"/>
+      <c r="A29" s="89"/>
       <c r="B29" s="25" t="s">
         <v>43</v>
       </c>
@@ -3424,7 +3421,7 @@
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="88"/>
+      <c r="A30" s="89"/>
       <c r="B30" s="25" t="s">
         <v>44</v>
       </c>
@@ -3455,7 +3452,7 @@
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="88"/>
+      <c r="A31" s="89"/>
       <c r="B31" s="25" t="s">
         <v>72</v>
       </c>
@@ -3486,7 +3483,7 @@
       <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="88"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="25" t="s">
         <v>73</v>
       </c>
@@ -3517,7 +3514,7 @@
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="88"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="14" t="s">
         <v>74</v>
       </c>
@@ -3680,10 +3677,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="86" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -3705,8 +3702,8 @@
       <c r="K2" s="66"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
-      <c r="B3" s="85"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="42" t="s">
         <v>23</v>
       </c>
@@ -3726,7 +3723,7 @@
       <c r="K3" s="66"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="59" t="s">
         <v>89</v>
       </c>
@@ -3749,7 +3746,7 @@
       <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="83" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -3776,8 +3773,8 @@
       <c r="K5" s="66"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="89" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="90" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="42" t="s">
@@ -3795,8 +3792,8 @@
       <c r="K6" s="66"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="92"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="42" t="s">
         <v>23</v>
       </c>
@@ -3812,8 +3809,8 @@
       <c r="K7" s="66"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="89" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="90" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="42" t="s">
@@ -3833,8 +3830,8 @@
       <c r="K8" s="66"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="89"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="42" t="s">
         <v>23</v>
       </c>
@@ -3852,8 +3849,8 @@
       <c r="K9" s="66"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="90" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="91" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -3877,8 +3874,8 @@
       <c r="K10" s="66"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="90"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="42" t="s">
         <v>24</v>
       </c>
@@ -3900,8 +3897,8 @@
       <c r="K11" s="66"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="85" t="s">
+      <c r="A12" s="83"/>
+      <c r="B12" s="86" t="s">
         <v>92</v>
       </c>
       <c r="C12" s="42" t="s">
@@ -3919,8 +3916,8 @@
       <c r="K12" s="66"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="90"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="42" t="s">
         <v>24</v>
       </c>
@@ -3936,7 +3933,7 @@
       <c r="K13" s="66"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="83" t="s">
         <v>78</v>
       </c>
       <c r="B14" s="59" t="s">
@@ -3959,7 +3956,7 @@
       <c r="K14" s="66"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="59" t="s">
         <v>95</v>
       </c>
@@ -3982,7 +3979,7 @@
       <c r="K15" s="66"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="91"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="59" t="s">
         <v>94</v>
       </c>
@@ -4001,10 +3998,10 @@
       <c r="K16" s="66"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="86" t="s">
         <v>80</v>
       </c>
       <c r="C17" s="42" t="s">
@@ -4026,8 +4023,8 @@
       <c r="K17" s="66"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="85"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="67" t="s">
         <v>23</v>
       </c>
